--- a/education-api/src/main/resources/static/template/questionImport.xlsx
+++ b/education-api/src/main/resources/static/template/questionImport.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\source-project\education\education-api\src\main\resources\static\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FED30E6-A446-42B5-9871-1D1FD0DDACDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C0EE0C-F622-4901-B550-3FDD0178E567}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>试题内容</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -134,23 +134,26 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{十点多}, {十点多4554}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>请问-2的相反数是______或者________</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{12},{23},{25},{23}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>多选题</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>单选题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${12},${23},${25},${23}</t>
+  </si>
+  <si>
+    <t>${12},${23},${25},${23}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${十点多}, ${十点多4554}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -506,15 +509,15 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="1" max="1" width="51.77734375" customWidth="1"/>
     <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="42.77734375" customWidth="1"/>
-    <col min="4" max="4" width="44.109375" customWidth="1"/>
+    <col min="3" max="3" width="44.109375" customWidth="1"/>
+    <col min="4" max="4" width="42.77734375" customWidth="1"/>
     <col min="5" max="5" width="21.88671875" customWidth="1"/>
     <col min="6" max="6" width="22.33203125" customWidth="1"/>
   </cols>
@@ -527,10 +530,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -541,15 +544,15 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
@@ -562,13 +565,13 @@
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>11</v>
@@ -584,10 +587,10 @@
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4"/>
       <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
@@ -600,13 +603,13 @@
         <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>18</v>
@@ -622,10 +625,10 @@
       <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
         <v>22</v>
       </c>
@@ -640,10 +643,10 @@
       <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
         <v>26</v>
       </c>
